--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl17-Ccr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl17-Ccr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ccl17</t>
+  </si>
+  <si>
+    <t>Ccr4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ccl17</t>
-  </si>
-  <si>
-    <t>Ccr4</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4804870000000001</v>
+        <v>0.2468816666666667</v>
       </c>
       <c r="H2">
-        <v>1.441461</v>
+        <v>0.740645</v>
       </c>
       <c r="I2">
-        <v>0.6605824831607631</v>
+        <v>0.6299860588115711</v>
       </c>
       <c r="J2">
-        <v>0.6605824831607631</v>
+        <v>0.6299860588115711</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,33 +555,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05887966666666667</v>
+        <v>0.04581866666666667</v>
       </c>
       <c r="N2">
-        <v>0.176639</v>
+        <v>0.137456</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4376255591461182</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4376255591461182</v>
       </c>
       <c r="Q2">
-        <v>0.02829091439766667</v>
+        <v>0.01131178879111111</v>
       </c>
       <c r="R2">
-        <v>0.254618229579</v>
+        <v>0.10180609912</v>
       </c>
       <c r="S2">
-        <v>0.6605824831607631</v>
+        <v>0.2756980012416732</v>
       </c>
       <c r="T2">
-        <v>0.6605824831607631</v>
+        <v>0.2756980012416731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -587,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,10 +605,10 @@
         <v>0.740645</v>
       </c>
       <c r="I3">
-        <v>0.3394175168392369</v>
+        <v>0.6299860588115711</v>
       </c>
       <c r="J3">
-        <v>0.3394175168392369</v>
+        <v>0.6299860588115711</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +617,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05887966666666667</v>
+        <v>0.05887966666666666</v>
       </c>
       <c r="N3">
         <v>0.176639</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.5623744408538818</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5623744408538818</v>
       </c>
       <c r="Q3">
-        <v>0.01453631023944445</v>
+        <v>0.01453631023944444</v>
       </c>
       <c r="R3">
         <v>0.130826792155</v>
       </c>
       <c r="S3">
-        <v>0.3394175168392369</v>
+        <v>0.354288057569898</v>
       </c>
       <c r="T3">
-        <v>0.3394175168392369</v>
+        <v>0.354288057569898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.1450026666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.435008</v>
+      </c>
+      <c r="I4">
+        <v>0.3700139411884289</v>
+      </c>
+      <c r="J4">
+        <v>0.3700139411884289</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.04581866666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.137456</v>
+      </c>
+      <c r="O4">
+        <v>0.4376255591461182</v>
+      </c>
+      <c r="P4">
+        <v>0.4376255591461182</v>
+      </c>
+      <c r="Q4">
+        <v>0.006643828849777778</v>
+      </c>
+      <c r="R4">
+        <v>0.059794459648</v>
+      </c>
+      <c r="S4">
+        <v>0.1619275579044451</v>
+      </c>
+      <c r="T4">
+        <v>0.1619275579044451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1450026666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.435008</v>
+      </c>
+      <c r="I5">
+        <v>0.3700139411884289</v>
+      </c>
+      <c r="J5">
+        <v>0.3700139411884289</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.05887966666666666</v>
+      </c>
+      <c r="N5">
+        <v>0.176639</v>
+      </c>
+      <c r="O5">
+        <v>0.5623744408538818</v>
+      </c>
+      <c r="P5">
+        <v>0.5623744408538818</v>
+      </c>
+      <c r="Q5">
+        <v>0.008537708679111111</v>
+      </c>
+      <c r="R5">
+        <v>0.07683937811199999</v>
+      </c>
+      <c r="S5">
+        <v>0.2080863832839838</v>
+      </c>
+      <c r="T5">
+        <v>0.2080863832839838</v>
       </c>
     </row>
   </sheetData>
